--- a/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI03FLMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="1176" windowWidth="24780" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="1350" yWindow="1170" windowWidth="24780" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -220,42 +220,6 @@
     <t>GI03FLMA-RI000-00-VELPTB100</t>
   </si>
   <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG013</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG033</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG058</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG059</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG034</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG066</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG089</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG064</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOG068</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOH099</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOH062</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIM01-02-CTDMOH097</t>
-  </si>
-  <si>
     <t>GI03FLMA-RIS01-04-PHSENF000</t>
   </si>
   <si>
@@ -416,6 +380,42 @@
   </si>
   <si>
     <t>N00510</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG040</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG045</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG047</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG048</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG041</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG043</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG042</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG044</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH050</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH051</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH049</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,7 +1311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,28 +1526,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="4"/>
+    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -1583,9 +1583,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>55</v>
@@ -1627,7 +1627,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
       <c r="G3" s="18"/>
@@ -1647,30 +1647,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120:E121"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="2"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>2</v>
@@ -1694,12 +1694,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>47</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F2" s="14">
         <v>1122</v>
@@ -1723,12 +1723,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>47</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F3" s="14">
         <v>1122</v>
@@ -1752,12 +1752,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>47</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F4" s="14">
         <v>1122</v>
@@ -1778,12 +1778,12 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>47</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F5" s="14">
         <v>1122</v>
@@ -1804,12 +1804,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>47</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F6" s="14">
         <v>1122</v>
@@ -1830,12 +1830,12 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>47</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F7" s="14">
         <v>1122</v>
@@ -1856,12 +1856,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>47</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F8" s="14">
         <v>1122</v>
@@ -1885,12 +1885,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>47</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F9" s="14">
         <v>1122</v>
@@ -1914,12 +1914,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>47</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F10" s="14">
         <v>1122</v>
@@ -1943,12 +1943,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>47</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F11" s="14">
         <v>1122</v>
@@ -1972,7 +1972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="14"/>
@@ -1982,12 +1982,12 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>47</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>53</v>
@@ -2011,12 +2011,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>47</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>53</v>
@@ -2037,12 +2037,12 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>47</v>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>53</v>
@@ -2063,12 +2063,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>47</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>53</v>
@@ -2089,12 +2089,12 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>47</v>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>53</v>
@@ -2115,12 +2115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>47</v>
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>53</v>
@@ -2141,12 +2141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>47</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>53</v>
@@ -2170,7 +2170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="14"/>
@@ -2180,12 +2180,12 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>47</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F21" s="14">
         <v>228</v>
@@ -2209,12 +2209,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>47</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F22" s="14">
         <v>228</v>
@@ -2238,12 +2238,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>47</v>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F23" s="14">
         <v>228</v>
@@ -2264,7 +2264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="14"/>
@@ -2274,12 +2274,12 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>47</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F25" s="14">
         <v>20503</v>
@@ -2303,12 +2303,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>47</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F26" s="14">
         <v>20503</v>
@@ -2329,12 +2329,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>47</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F27" s="14">
         <v>20503</v>
@@ -2355,12 +2355,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>47</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F28" s="14">
         <v>20503</v>
@@ -2381,12 +2381,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>47</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F29" s="14">
         <v>20503</v>
@@ -2407,12 +2407,12 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>47</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F30" s="14">
         <v>20503</v>
@@ -2433,12 +2433,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>47</v>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F31" s="14">
         <v>20503</v>
@@ -2459,12 +2459,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>47</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F32" s="14">
         <v>20503</v>
@@ -2485,12 +2485,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>47</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F33" s="14">
         <v>20503</v>
@@ -2511,7 +2511,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34"/>
       <c r="C34" s="14"/>
@@ -2521,12 +2521,12 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>47</v>
@@ -2535,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>5</v>
@@ -2550,12 +2550,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>47</v>
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>6</v>
@@ -2576,12 +2576,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>47</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>7</v>
@@ -2602,12 +2602,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>47</v>
@@ -2616,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>29</v>
@@ -2628,7 +2628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39"/>
       <c r="C39" s="14"/>
@@ -2638,12 +2638,12 @@
       <c r="G39" s="14"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>47</v>
@@ -2652,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>5</v>
@@ -2667,12 +2667,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>47</v>
@@ -2681,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>6</v>
@@ -2693,12 +2693,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>47</v>
@@ -2707,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>7</v>
@@ -2719,12 +2719,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>47</v>
@@ -2733,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>29</v>
@@ -2745,7 +2745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44"/>
       <c r="C44" s="14"/>
@@ -2755,12 +2755,12 @@
       <c r="G44" s="14"/>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>47</v>
@@ -2769,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>5</v>
@@ -2784,12 +2784,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>47</v>
@@ -2798,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>6</v>
@@ -2810,12 +2810,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>47</v>
@@ -2824,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>7</v>
@@ -2836,12 +2836,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>47</v>
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>29</v>
@@ -2862,7 +2862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49"/>
       <c r="C49" s="14"/>
@@ -2872,12 +2872,12 @@
       <c r="G49" s="14"/>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>47</v>
@@ -2886,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>5</v>
@@ -2901,12 +2901,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>47</v>
@@ -2915,10 +2915,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>6</v>
@@ -2927,12 +2927,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>47</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>7</v>
@@ -2953,12 +2953,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>47</v>
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>29</v>
@@ -2979,7 +2979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54"/>
       <c r="C54" s="14"/>
@@ -2989,12 +2989,12 @@
       <c r="G54" s="14"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>5</v>
@@ -3018,12 +3018,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>47</v>
@@ -3032,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>6</v>
@@ -3044,12 +3044,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>47</v>
@@ -3058,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>7</v>
@@ -3070,12 +3070,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>47</v>
@@ -3084,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>29</v>
@@ -3096,7 +3096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59"/>
       <c r="C59" s="14"/>
@@ -3106,12 +3106,12 @@
       <c r="G59" s="14"/>
       <c r="H59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>47</v>
@@ -3120,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>5</v>
@@ -3135,12 +3135,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>47</v>
@@ -3149,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>6</v>
@@ -3161,12 +3161,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>47</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>7</v>
@@ -3187,12 +3187,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>47</v>
@@ -3201,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>29</v>
@@ -3213,7 +3213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64"/>
       <c r="C64" s="14"/>
@@ -3223,24 +3223,24 @@
       <c r="G64" s="14"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="15">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>114</v>
-      </c>
       <c r="F65" s="23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>5</v>
@@ -3252,24 +3252,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="15">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>114</v>
-      </c>
       <c r="F66" s="23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>6</v>
@@ -3278,24 +3278,24 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="15">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>114</v>
-      </c>
       <c r="F67" s="23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>7</v>
@@ -3304,24 +3304,24 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="15">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="15">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
       <c r="F68" s="23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>29</v>
@@ -3330,7 +3330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69"/>
       <c r="C69" s="14"/>
@@ -3340,12 +3340,12 @@
       <c r="G69" s="14"/>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>47</v>
@@ -3354,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>5</v>
@@ -3369,12 +3369,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>47</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>6</v>
@@ -3395,12 +3395,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>47</v>
@@ -3409,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>7</v>
@@ -3421,12 +3421,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>47</v>
@@ -3435,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>29</v>
@@ -3447,7 +3447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74"/>
       <c r="C74" s="14"/>
@@ -3457,12 +3457,12 @@
       <c r="G74" s="14"/>
       <c r="H74" s="23"/>
     </row>
-    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>47</v>
@@ -3471,10 +3471,10 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>5</v>
@@ -3486,12 +3486,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>47</v>
@@ -3500,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>6</v>
@@ -3512,12 +3512,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>47</v>
@@ -3526,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>7</v>
@@ -3538,12 +3538,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>47</v>
@@ -3552,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>29</v>
@@ -3564,7 +3564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79"/>
       <c r="C79" s="14"/>
@@ -3574,12 +3574,12 @@
       <c r="G79" s="14"/>
       <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>47</v>
@@ -3588,10 +3588,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>5</v>
@@ -3603,12 +3603,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>47</v>
@@ -3617,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>6</v>
@@ -3629,12 +3629,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>47</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>7</v>
@@ -3655,12 +3655,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>47</v>
@@ -3669,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>29</v>
@@ -3681,7 +3681,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84"/>
       <c r="C84" s="14"/>
@@ -3691,12 +3691,12 @@
       <c r="G84" s="14"/>
       <c r="H84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>47</v>
@@ -3705,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>5</v>
@@ -3720,12 +3720,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>47</v>
@@ -3734,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>6</v>
@@ -3746,12 +3746,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>47</v>
@@ -3760,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>7</v>
@@ -3772,12 +3772,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>47</v>
@@ -3786,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>29</v>
@@ -3798,7 +3798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89"/>
       <c r="C89" s="14"/>
@@ -3808,12 +3808,12 @@
       <c r="G89" s="14"/>
       <c r="H89" s="23"/>
     </row>
-    <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>47</v>
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>5</v>
@@ -3837,12 +3837,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>47</v>
@@ -3851,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>6</v>
@@ -3863,12 +3863,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>47</v>
@@ -3877,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>7</v>
@@ -3889,12 +3889,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>47</v>
@@ -3903,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>29</v>
@@ -3915,7 +3915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94"/>
       <c r="C94" s="14"/>
@@ -3925,12 +3925,12 @@
       <c r="G94" s="14"/>
       <c r="H94" s="23"/>
     </row>
-    <row r="95" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>47</v>
@@ -3939,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>5</v>
@@ -3951,12 +3951,12 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>47</v>
@@ -3965,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>6</v>
@@ -3977,12 +3977,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>47</v>
@@ -3991,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>7</v>
@@ -4003,7 +4003,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98"/>
       <c r="C98" s="23"/>
@@ -4013,12 +4013,12 @@
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>47</v>
@@ -4027,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>5</v>
@@ -4039,12 +4039,12 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>47</v>
@@ -4053,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>6</v>
@@ -4065,12 +4065,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>47</v>
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>7</v>
@@ -4091,7 +4091,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102"/>
       <c r="C102" s="23"/>
@@ -4101,12 +4101,12 @@
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
     </row>
-    <row r="103" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>47</v>
@@ -4115,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>5</v>
@@ -4127,12 +4127,12 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>47</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>6</v>
@@ -4153,12 +4153,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>47</v>
@@ -4167,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>7</v>
@@ -4179,7 +4179,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106"/>
       <c r="C106" s="23"/>
@@ -4189,12 +4189,12 @@
       <c r="G106" s="23"/>
       <c r="H106" s="23"/>
     </row>
-    <row r="107" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>47</v>
@@ -4203,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>5</v>
@@ -4215,12 +4215,12 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>47</v>
@@ -4229,10 +4229,10 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>6</v>
@@ -4241,12 +4241,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>47</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>7</v>
@@ -4267,7 +4267,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110"/>
       <c r="C110" s="23"/>
@@ -4277,12 +4277,12 @@
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
     </row>
-    <row r="111" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>47</v>
@@ -4291,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>6</v>
@@ -4306,12 +4306,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>47</v>
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>7</v>
@@ -4332,17 +4332,17 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113"/>
       <c r="F113" s="25"/>
     </row>
-    <row r="114" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>47</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>6</v>
@@ -4366,12 +4366,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>47</v>
@@ -4380,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>7</v>
@@ -4392,17 +4392,17 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116"/>
       <c r="F116" s="25"/>
     </row>
-    <row r="117" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>47</v>
@@ -4411,10 +4411,10 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>6</v>
@@ -4426,12 +4426,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>47</v>
@@ -4440,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>7</v>
@@ -4452,17 +4452,17 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119"/>
       <c r="F119" s="25"/>
     </row>
-    <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>47</v>
@@ -4471,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>6</v>
@@ -4486,12 +4486,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>47</v>
@@ -4500,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>7</v>
@@ -4512,17 +4512,17 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122"/>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>47</v>
@@ -4538,7 +4538,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124"/>
       <c r="C124" s="14"/>
@@ -4549,12 +4549,12 @@
       <c r="H124" s="14"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>47</v>
@@ -4569,7 +4569,7 @@
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -4579,7 +4579,7 @@
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -4589,7 +4589,7 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -4599,7 +4599,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -4609,7 +4609,7 @@
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="130">
   <si>
     <t>Ref Des</t>
   </si>
@@ -223,12 +223,6 @@
     <t>GI03FLMA-RIS01-04-PHSENF000</t>
   </si>
   <si>
-    <t>GI03FLMA-RIM01-01-SIOENG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS01-01-SIOENG000</t>
-  </si>
-  <si>
     <t>GI03FLMA-RI000-00-CTDMOH000</t>
   </si>
   <si>
@@ -416,6 +410,18 @@
   </si>
   <si>
     <t>GI03FLMA-RIM01-02-CTDMOH049</t>
+  </si>
+  <si>
+    <t>OL000019</t>
+  </si>
+  <si>
+    <t>OL000020</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIS01-00-SIOENG000</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1553,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -1585,7 +1591,7 @@
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>55</v>
@@ -1647,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -1679,7 +1685,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>2</v>
@@ -1699,16 +1705,16 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
       </c>
       <c r="F2" s="14">
         <v>1122</v>
@@ -1728,16 +1734,16 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
       </c>
       <c r="F3" s="14">
         <v>1122</v>
@@ -1757,16 +1763,16 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
       </c>
       <c r="F4" s="14">
         <v>1122</v>
@@ -1783,16 +1789,16 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
       </c>
       <c r="F5" s="14">
         <v>1122</v>
@@ -1809,16 +1815,16 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
       </c>
       <c r="F6" s="14">
         <v>1122</v>
@@ -1835,16 +1841,16 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
       </c>
       <c r="F7" s="14">
         <v>1122</v>
@@ -1861,16 +1867,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
       </c>
       <c r="F8" s="14">
         <v>1122</v>
@@ -1890,16 +1896,16 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
       </c>
       <c r="F9" s="14">
         <v>1122</v>
@@ -1919,16 +1925,16 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
       </c>
       <c r="F10" s="14">
         <v>1122</v>
@@ -1948,16 +1954,16 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
       </c>
       <c r="F11" s="14">
         <v>1122</v>
@@ -1987,7 +1993,7 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>47</v>
@@ -1996,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>53</v>
@@ -2016,7 +2022,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>47</v>
@@ -2025,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>53</v>
@@ -2042,7 +2048,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>47</v>
@@ -2051,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>53</v>
@@ -2068,7 +2074,7 @@
         <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>47</v>
@@ -2077,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>53</v>
@@ -2094,7 +2100,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>47</v>
@@ -2103,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>53</v>
@@ -2120,7 +2126,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>47</v>
@@ -2129,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>53</v>
@@ -2146,7 +2152,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>47</v>
@@ -2155,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>53</v>
@@ -2185,7 +2191,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>47</v>
@@ -2194,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="14">
         <v>228</v>
@@ -2214,7 +2220,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>47</v>
@@ -2223,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="14">
         <v>228</v>
@@ -2243,7 +2249,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>47</v>
@@ -2252,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="14">
         <v>228</v>
@@ -2279,7 +2285,7 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>47</v>
@@ -2288,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="14">
         <v>20503</v>
@@ -2308,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>47</v>
@@ -2317,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="14">
         <v>20503</v>
@@ -2334,7 +2340,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>47</v>
@@ -2343,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F27" s="14">
         <v>20503</v>
@@ -2360,7 +2366,7 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>47</v>
@@ -2369,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F28" s="14">
         <v>20503</v>
@@ -2386,7 +2392,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>47</v>
@@ -2395,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F29" s="14">
         <v>20503</v>
@@ -2412,7 +2418,7 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>47</v>
@@ -2421,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F30" s="14">
         <v>20503</v>
@@ -2438,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>47</v>
@@ -2447,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="14">
         <v>20503</v>
@@ -2464,7 +2470,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>47</v>
@@ -2473,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F32" s="14">
         <v>20503</v>
@@ -2490,7 +2496,7 @@
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>47</v>
@@ -2499,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" s="14">
         <v>20503</v>
@@ -2522,11 +2528,11 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>117</v>
+      <c r="A35" t="s">
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>47</v>
@@ -2535,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>5</v>
@@ -2551,11 +2557,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>117</v>
+      <c r="A36" t="s">
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>47</v>
@@ -2564,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>6</v>
@@ -2577,11 +2583,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>117</v>
+      <c r="A37" t="s">
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>47</v>
@@ -2590,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>7</v>
@@ -2603,11 +2609,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>117</v>
+      <c r="A38" t="s">
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>47</v>
@@ -2616,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>29</v>
@@ -2640,10 +2646,10 @@
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>47</v>
@@ -2652,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>5</v>
@@ -2669,10 +2675,10 @@
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>47</v>
@@ -2681,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>6</v>
@@ -2695,10 +2701,10 @@
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>47</v>
@@ -2707,10 +2713,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>7</v>
@@ -2721,10 +2727,10 @@
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>47</v>
@@ -2733,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>29</v>
@@ -2757,10 +2763,10 @@
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>47</v>
@@ -2769,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>5</v>
@@ -2786,10 +2792,10 @@
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>47</v>
@@ -2798,10 +2804,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>6</v>
@@ -2812,10 +2818,10 @@
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>47</v>
@@ -2824,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>7</v>
@@ -2838,10 +2844,10 @@
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>47</v>
@@ -2850,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>29</v>
@@ -2877,7 +2883,7 @@
         <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>47</v>
@@ -2886,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>5</v>
@@ -2906,7 +2912,7 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>47</v>
@@ -2915,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>6</v>
@@ -2932,7 +2938,7 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>47</v>
@@ -2941,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>7</v>
@@ -2958,7 +2964,7 @@
         <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>47</v>
@@ -2967,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>29</v>
@@ -2991,10 +2997,10 @@
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -3003,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>5</v>
@@ -3020,10 +3026,10 @@
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>47</v>
@@ -3032,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>6</v>
@@ -3046,10 +3052,10 @@
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>47</v>
@@ -3058,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>7</v>
@@ -3072,10 +3078,10 @@
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>47</v>
@@ -3084,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>29</v>
@@ -3108,10 +3114,10 @@
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>47</v>
@@ -3120,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>5</v>
@@ -3137,10 +3143,10 @@
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>47</v>
@@ -3149,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>6</v>
@@ -3163,10 +3169,10 @@
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>47</v>
@@ -3175,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>7</v>
@@ -3189,10 +3195,10 @@
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>47</v>
@@ -3201,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>29</v>
@@ -3225,10 +3231,10 @@
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>47</v>
@@ -3237,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>5</v>
@@ -3254,10 +3260,10 @@
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>47</v>
@@ -3266,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>6</v>
@@ -3280,10 +3286,10 @@
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>47</v>
@@ -3292,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>7</v>
@@ -3306,10 +3312,10 @@
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>47</v>
@@ -3318,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>29</v>
@@ -3342,10 +3348,10 @@
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>47</v>
@@ -3354,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>5</v>
@@ -3371,10 +3377,10 @@
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>47</v>
@@ -3383,10 +3389,10 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>6</v>
@@ -3397,10 +3403,10 @@
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>47</v>
@@ -3409,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>7</v>
@@ -3423,10 +3429,10 @@
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>47</v>
@@ -3435,10 +3441,10 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>29</v>
@@ -3459,10 +3465,10 @@
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>47</v>
@@ -3471,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>5</v>
@@ -3488,10 +3494,10 @@
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>47</v>
@@ -3500,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>6</v>
@@ -3514,10 +3520,10 @@
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>47</v>
@@ -3526,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>7</v>
@@ -3540,10 +3546,10 @@
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>47</v>
@@ -3552,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>29</v>
@@ -3579,7 +3585,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>47</v>
@@ -3588,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>5</v>
@@ -3608,7 +3614,7 @@
         <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>47</v>
@@ -3617,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>6</v>
@@ -3634,7 +3640,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>47</v>
@@ -3643,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>7</v>
@@ -3660,7 +3666,7 @@
         <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>47</v>
@@ -3669,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>29</v>
@@ -3693,10 +3699,10 @@
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>47</v>
@@ -3705,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>5</v>
@@ -3722,10 +3728,10 @@
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>47</v>
@@ -3734,10 +3740,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>6</v>
@@ -3748,10 +3754,10 @@
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>47</v>
@@ -3760,10 +3766,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>7</v>
@@ -3774,10 +3780,10 @@
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>47</v>
@@ -3786,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>29</v>
@@ -3810,10 +3816,10 @@
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>47</v>
@@ -3822,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>5</v>
@@ -3839,10 +3845,10 @@
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>47</v>
@@ -3851,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>6</v>
@@ -3865,10 +3871,10 @@
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>47</v>
@@ -3877,10 +3883,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>7</v>
@@ -3891,10 +3897,10 @@
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>47</v>
@@ -3903,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>29</v>
@@ -3927,10 +3933,10 @@
     </row>
     <row r="95" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>47</v>
@@ -3939,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>5</v>
@@ -3953,10 +3959,10 @@
     </row>
     <row r="96" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>47</v>
@@ -3965,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>6</v>
@@ -3979,10 +3985,10 @@
     </row>
     <row r="97" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>47</v>
@@ -3991,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>7</v>
@@ -4018,7 +4024,7 @@
         <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>47</v>
@@ -4027,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>5</v>
@@ -4044,7 +4050,7 @@
         <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>47</v>
@@ -4053,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>6</v>
@@ -4070,7 +4076,7 @@
         <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>47</v>
@@ -4079,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>7</v>
@@ -4103,10 +4109,10 @@
     </row>
     <row r="103" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>47</v>
@@ -4115,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>5</v>
@@ -4129,10 +4135,10 @@
     </row>
     <row r="104" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>47</v>
@@ -4141,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>6</v>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="105" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>47</v>
@@ -4167,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>7</v>
@@ -4191,10 +4197,10 @@
     </row>
     <row r="107" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>47</v>
@@ -4203,10 +4209,10 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>5</v>
@@ -4217,10 +4223,10 @@
     </row>
     <row r="108" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>47</v>
@@ -4229,10 +4235,10 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>6</v>
@@ -4243,10 +4249,10 @@
     </row>
     <row r="109" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>47</v>
@@ -4255,10 +4261,10 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>7</v>
@@ -4282,7 +4288,7 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>47</v>
@@ -4291,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>6</v>
@@ -4311,7 +4317,7 @@
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>47</v>
@@ -4320,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>7</v>
@@ -4342,7 +4348,7 @@
         <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>47</v>
@@ -4351,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>6</v>
@@ -4371,7 +4377,7 @@
         <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>47</v>
@@ -4380,10 +4386,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>7</v>
@@ -4402,7 +4408,7 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>47</v>
@@ -4411,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>6</v>
@@ -4431,7 +4437,7 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>47</v>
@@ -4440,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>7</v>
@@ -4462,7 +4468,7 @@
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>47</v>
@@ -4471,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>6</v>
@@ -4491,7 +4497,7 @@
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>47</v>
@@ -4500,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>7</v>
@@ -4519,10 +4525,10 @@
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>47</v>
@@ -4530,7 +4536,9 @@
       <c r="D123" s="15">
         <v>1</v>
       </c>
-      <c r="E123" s="15"/>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
       <c r="F123" s="23">
         <v>13286</v>
       </c>
@@ -4543,7 +4551,6 @@
       <c r="B124"/>
       <c r="C124" s="14"/>
       <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
       <c r="F124" s="23"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
@@ -4551,10 +4558,10 @@
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>47</v>
@@ -4562,7 +4569,9 @@
       <c r="D125" s="24">
         <v>1</v>
       </c>
-      <c r="E125" s="24"/>
+      <c r="E125" t="s">
+        <v>127</v>
+      </c>
       <c r="F125" s="23">
         <v>13280</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1170" windowWidth="24780" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="1180" windowWidth="24780" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="131">
   <si>
     <t>Ref Des</t>
   </si>
@@ -422,6 +417,9 @@
   </si>
   <si>
     <t>GI03FLMA-RIS01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>Units in mm</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1221,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1282,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1317,7 +1315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,26 +1530,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="4"/>
+    <col min="8" max="8" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="28">
       <c r="A1" s="27" t="s">
         <v>87</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="10" customFormat="1">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1">
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
       <c r="G3" s="18"/>
@@ -1653,25 +1651,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="2"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="28">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
@@ -1862,7 +1860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -1891,7 +1889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>56</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="14"/>
@@ -1988,7 +1986,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="14" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2093,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="14" t="s">
         <v>62</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="14"/>
@@ -2186,7 +2184,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
@@ -2215,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="14"/>
@@ -2280,7 +2278,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="14" t="s">
         <v>57</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="14" t="s">
         <v>57</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
@@ -2361,7 +2359,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>57</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="14" t="s">
         <v>57</v>
       </c>
@@ -2412,8 +2410,11 @@
       <c r="H29" s="14">
         <v>498000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="14" t="s">
         <v>57</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="14" t="s">
         <v>57</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="14"/>
       <c r="B34"/>
       <c r="C34" s="14"/>
@@ -2527,7 +2528,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="14"/>
       <c r="B39"/>
       <c r="C39" s="14"/>
@@ -2644,7 +2645,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="14" t="s">
         <v>118</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="14" t="s">
         <v>118</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="14" t="s">
         <v>118</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="14" t="s">
         <v>118</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="14"/>
       <c r="B44"/>
       <c r="C44" s="14"/>
@@ -2761,7 +2762,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="14" t="s">
         <v>121</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="14" t="s">
         <v>121</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="14" t="s">
         <v>121</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="14"/>
       <c r="B49"/>
       <c r="C49" s="14"/>
@@ -2878,7 +2879,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="14" t="s">
         <v>119</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="14" t="s">
         <v>119</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="14" t="s">
         <v>119</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="14"/>
       <c r="B54"/>
       <c r="C54" s="14"/>
@@ -2995,7 +2996,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="14" t="s">
         <v>122</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="14" t="s">
         <v>122</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="14" t="s">
         <v>122</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="14"/>
       <c r="B59"/>
       <c r="C59" s="14"/>
@@ -3112,7 +3113,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="14" t="s">
         <v>115</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="14" t="s">
         <v>115</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="14" t="s">
         <v>115</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="14" t="s">
         <v>115</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="14"/>
       <c r="B64"/>
       <c r="C64" s="14"/>
@@ -3229,7 +3230,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="14" t="s">
         <v>120</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="14" t="s">
         <v>120</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="14" t="s">
         <v>120</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="14" t="s">
         <v>120</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="14"/>
       <c r="B69"/>
       <c r="C69" s="14"/>
@@ -3346,7 +3347,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="14" t="s">
         <v>116</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="14" t="s">
         <v>116</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="14" t="s">
         <v>116</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="14" t="s">
         <v>116</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="14"/>
       <c r="B74"/>
       <c r="C74" s="14"/>
@@ -3463,7 +3464,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="23"/>
     </row>
-    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="14" t="s">
         <v>117</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="14" t="s">
         <v>117</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="14" t="s">
         <v>117</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="14" t="s">
         <v>117</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="14"/>
       <c r="B79"/>
       <c r="C79" s="14"/>
@@ -3580,7 +3581,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="1" customFormat="1">
       <c r="A80" s="14" t="s">
         <v>125</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="14" t="s">
         <v>125</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="14" t="s">
         <v>125</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="14" t="s">
         <v>125</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="14"/>
       <c r="B84"/>
       <c r="C84" s="14"/>
@@ -3697,7 +3698,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="14" t="s">
         <v>123</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="14" t="s">
         <v>123</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="14" t="s">
         <v>123</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="14" t="s">
         <v>123</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="14"/>
       <c r="B89"/>
       <c r="C89" s="14"/>
@@ -3814,7 +3815,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="23"/>
     </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="14" t="s">
         <v>124</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="14" t="s">
         <v>124</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="14" t="s">
         <v>124</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="14" t="s">
         <v>124</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="14"/>
       <c r="B94"/>
       <c r="C94" s="14"/>
@@ -3931,7 +3932,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="23"/>
     </row>
-    <row r="95" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="25" customFormat="1">
       <c r="A95" s="23" t="s">
         <v>63</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="25" customFormat="1">
       <c r="A96" s="23" t="s">
         <v>63</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="25" customFormat="1">
       <c r="A97" s="23" t="s">
         <v>63</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="25" customFormat="1">
       <c r="A98" s="23"/>
       <c r="B98"/>
       <c r="C98" s="23"/>
@@ -4019,7 +4020,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="25" customFormat="1">
       <c r="A99" s="23" t="s">
         <v>66</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="25" customFormat="1">
       <c r="A100" s="23" t="s">
         <v>66</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="25" customFormat="1">
       <c r="A101" s="23" t="s">
         <v>66</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="25" customFormat="1">
       <c r="A102" s="23"/>
       <c r="B102"/>
       <c r="C102" s="23"/>
@@ -4107,7 +4108,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
     </row>
-    <row r="103" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="25" customFormat="1">
       <c r="A103" s="23" t="s">
         <v>65</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="25" customFormat="1">
       <c r="A104" s="23" t="s">
         <v>65</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="25" customFormat="1">
       <c r="A105" s="23" t="s">
         <v>65</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="25" customFormat="1">
       <c r="A106" s="23"/>
       <c r="B106"/>
       <c r="C106" s="23"/>
@@ -4195,7 +4196,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="23"/>
     </row>
-    <row r="107" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="25" customFormat="1">
       <c r="A107" s="23" t="s">
         <v>64</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="25" customFormat="1">
       <c r="A108" s="23" t="s">
         <v>64</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="25" customFormat="1">
       <c r="A109" s="23" t="s">
         <v>64</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="25" customFormat="1">
       <c r="A110" s="23"/>
       <c r="B110"/>
       <c r="C110" s="23"/>
@@ -4283,7 +4284,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
     </row>
-    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="15" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="15" t="s">
         <v>58</v>
       </c>
@@ -4338,12 +4339,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="15"/>
       <c r="B113"/>
       <c r="F113" s="25"/>
     </row>
-    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="15" t="s">
         <v>59</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="15" t="s">
         <v>59</v>
       </c>
@@ -4398,12 +4399,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="15"/>
       <c r="B116"/>
       <c r="F116" s="25"/>
     </row>
-    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="15" t="s">
         <v>60</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="15" t="s">
         <v>60</v>
       </c>
@@ -4458,12 +4459,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="15"/>
       <c r="B119"/>
       <c r="F119" s="25"/>
     </row>
-    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="15" t="s">
         <v>61</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="15" t="s">
         <v>61</v>
       </c>
@@ -4518,12 +4519,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="15"/>
       <c r="B122"/>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="23" t="s">
         <v>128</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="23"/>
       <c r="B124"/>
       <c r="C124" s="14"/>
@@ -4556,7 +4557,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="23" t="s">
         <v>129</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -4588,7 +4589,7 @@
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -4598,7 +4599,7 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -4608,7 +4609,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -4618,7 +4619,7 @@
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1180" windowWidth="24780" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="1180" windowWidth="24780" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>41955</v>
+        <v>41894</v>
       </c>
       <c r="F2" s="13">
         <v>0.84097222222222223</v>
@@ -1651,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
